--- a/src/main/resources/data/disponibilidades/disponibilidades_06 23 a 29 2025.xlsx
+++ b/src/main/resources/data/disponibilidades/disponibilidades_06 23 a 29 2025.xlsx
@@ -365,9 +365,9 @@
         <v>15</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -490,8 +490,8 @@
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="4"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
     </row>
     <row r="7">

--- a/src/main/resources/data/disponibilidades/disponibilidades_06 23 a 29 2025.xlsx
+++ b/src/main/resources/data/disponibilidades/disponibilidades_06 23 a 29 2025.xlsx
@@ -202,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -210,6 +210,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
@@ -365,8 +371,8 @@
         <v>15</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>

--- a/src/main/resources/data/disponibilidades/disponibilidades_06 23 a 29 2025.xlsx
+++ b/src/main/resources/data/disponibilidades/disponibilidades_06 23 a 29 2025.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
   <si>
     <t>Cédula</t>
   </si>
@@ -62,67 +62,43 @@
     <t>B</t>
   </si>
   <si>
-    <t>1001234567</t>
-  </si>
-  <si>
-    <t>María Torres Acosta</t>
+    <t>1012233445</t>
+  </si>
+  <si>
+    <t>Luis Fernando Ríos</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>1034567890</t>
+  </si>
+  <si>
+    <t>Andrés Villa Morales</t>
+  </si>
+  <si>
+    <t>FIFA</t>
+  </si>
+  <si>
+    <t>1056789123</t>
+  </si>
+  <si>
+    <t>Daniel Martínez Rojas</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>1012233445</t>
-  </si>
-  <si>
-    <t>Luis Fernando Ríos</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>1034567890</t>
-  </si>
-  <si>
-    <t>Andrés Villa Morales</t>
-  </si>
-  <si>
-    <t>FIFA</t>
-  </si>
-  <si>
-    <t>1045678912</t>
-  </si>
-  <si>
-    <t>Carolina López Mejía</t>
-  </si>
-  <si>
-    <t>1056789123</t>
-  </si>
-  <si>
-    <t>Daniel Martínez Rojas</t>
-  </si>
-  <si>
     <t>1067891234</t>
   </si>
   <si>
     <t>Julieth Vargas Duarte</t>
   </si>
   <si>
-    <t>1078912345</t>
-  </si>
-  <si>
-    <t>Pedro Jiménez Salazar</t>
-  </si>
-  <si>
     <t>1089123456</t>
   </si>
   <si>
     <t>Ana María Soto Ruíz</t>
-  </si>
-  <si>
-    <t>1091234567</t>
-  </si>
-  <si>
-    <t>Esteban Lara Mendoza</t>
   </si>
 </sst>
 </file>
@@ -202,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -220,22 +196,20 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AA12"/>
+  <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="10.9296875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="19.1328125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.4375"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="8.625"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="4.45703125"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="5.45703125"/>
@@ -371,9 +345,9 @@
         <v>15</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -508,7 +482,7 @@
         <v>26</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -543,7 +517,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -570,146 +544,6 @@
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
     </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
-    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D1:I1"/>

--- a/src/main/resources/data/disponibilidades/disponibilidades_06 23 a 29 2025.xlsx
+++ b/src/main/resources/data/disponibilidades/disponibilidades_06 23 a 29 2025.xlsx
@@ -178,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -186,6 +186,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
@@ -346,8 +360,8 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>

--- a/src/main/resources/data/disponibilidades/disponibilidades_06 23 a 29 2025.xlsx
+++ b/src/main/resources/data/disponibilidades/disponibilidades_06 23 a 29 2025.xlsx
@@ -178,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -186,6 +186,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
@@ -360,8 +364,8 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="30"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>

--- a/src/main/resources/data/disponibilidades/disponibilidades_06 23 a 29 2025.xlsx
+++ b/src/main/resources/data/disponibilidades/disponibilidades_06 23 a 29 2025.xlsx
@@ -178,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -186,6 +186,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
@@ -364,8 +366,8 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="32"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
